--- a/Outputs/Tables/Transplants/T3 – LOW.xlsx
+++ b/Outputs/Tables/Transplants/T3 – LOW.xlsx
@@ -173,16 +173,16 @@
         <v>0.07538846555797943</v>
       </c>
       <c r="E3" t="n">
-        <v>10.290232849219093</v>
+        <v>10.37554661440128</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09738675052995993</v>
+        <v>0.08714499604864756</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.6618746898263033</v>
+        <v>-3.7471884550084895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06165029148023552</v>
+        <v>0.043713036924150524</v>
       </c>
     </row>
     <row r="4">
